--- a/Jvedio-WPF/Jvedio.Test/测试用例.xlsx
+++ b/Jvedio-WPF/Jvedio.Test/测试用例.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
   <si>
     <t>用例编号</t>
   </si>
@@ -28,9 +28,6 @@
     <t>所属模块</t>
   </si>
   <si>
-    <t>前置条件</t>
-  </si>
-  <si>
     <t>操作步骤</t>
   </si>
   <si>
@@ -38,6 +35,213 @@
   </si>
   <si>
     <t>是否通过</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>4.6.1.1升级到5.0</t>
+  </si>
+  <si>
+    <t>升级</t>
+  </si>
+  <si>
+    <t>1.删除目录 data
+2.解压 Files.7z 到软件目录（有密码）
+3.启动 Jvedio</t>
+  </si>
+  <si>
+    <t>1.Jvedio 正常迁移了数据</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>1. 选择库界面左侧导航栏</t>
+  </si>
+  <si>
+    <t>扫描电影</t>
+  </si>
+  <si>
+    <t>扫描</t>
+  </si>
+  <si>
+    <t>1.重新生成 Jvedio
+2.新建库【测试扫描】
+3.将 F:/电影 拖入</t>
+  </si>
+  <si>
+    <t>1.成功扫描并导入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.扫描的按钮优化
+2.新建库的输入框按钮
+3.左下角 JVEDIO 鼠标样式
+4.新增鼠标样式
+5.隐藏快速访问的加号
+</t>
+  </si>
+  <si>
+    <t>扫描带识别码视频</t>
+  </si>
+  <si>
+    <t>1.新建库【识别码】
+2.点击上方【导入视频】，选择一个文件夹
+3.点击左下角设置-扫描-扫描多个文件夹</t>
+  </si>
+  <si>
+    <t>1.扫描多个文件夹 tooltip</t>
+  </si>
+  <si>
+    <t>扫描NFO</t>
+  </si>
+  <si>
+    <t>1.新建库【NFO】
+2.解压 NFO.7z 到软件目录（有密码）
+3.设置-扫描与导入-勾选【导入NFO】
+4.点击左下角设置-扫描-扫描多个文件夹，选择该 NFO 文件夹
+5.切换到预览图，右键选择【有图模式】</t>
+  </si>
+  <si>
+    <t>1.成功扫描并导入
+2.有些影视资源具有图片</t>
+  </si>
+  <si>
+    <t>1.删除库后，新建同名库，统计信息不正确
+2.且演员未删除
+3.演员头像未复制过去</t>
+  </si>
+  <si>
+    <t>启动时扫描</t>
+  </si>
+  <si>
+    <t>1.设置-扫描与导入-勾选启动时扫描
+2.选择库【NFO】，添加目录
+3.删除NFO所有信息
+4.点击左上角返回，重新进入库 NFO
+5.重新打开 Jvedio</t>
+  </si>
+  <si>
+    <t>1.切换库不会进行扫描
+2.重启后会扫描库</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>1.【功能】添加全部影片-删除信息
+2.【BUG】切换库后会进行扫描</t>
+  </si>
+  <si>
+    <t>信息编辑与修改</t>
+  </si>
+  <si>
+    <t>信息编辑</t>
+  </si>
+  <si>
+    <t>1.打开库【NFO】
+2.某个影片-右键-修改信息，删除演员、添加类别、标签等，保存
+3.点击某个影片，进入详情页，点击右上角编辑-修改识别码、文件位置、添加演员
+4.在已有的标签、类别上修改，保存</t>
+  </si>
+  <si>
+    <t>1.信息被成功修改并实时更新</t>
+  </si>
+  <si>
+    <t>侧边栏功能</t>
+  </si>
+  <si>
+    <t>信息查看</t>
+  </si>
+  <si>
+    <t>1.打开库【NFO】
+2.点击侧边栏【所有视频】、【我的收藏】、【最近播放】
+3.点击侧边栏【影片演员】
+4.点击侧边栏【我的标签】，点击某个标签可跳转
+4.点击侧边栏【智能分类】，分别点击各个分类下的标签进行跳转</t>
+  </si>
+  <si>
+    <t>1.我的收藏双击后可取消收藏
+2.最近播放右键清除可去掉
+3.影片演员可查看
+4.智能分类可查阅，点击对应标签可跳转且数目对应</t>
+  </si>
+  <si>
+    <t>标记增改</t>
+  </si>
+  <si>
+    <t>标记</t>
+  </si>
+  <si>
+    <t>1.打开库【测试扫描】
+2.新增标记（香港电影-红-黄）
+3.右键选择所有，添加标记【香港电影】
+4.选择几个电影，右键添加标记【香港电影】
+5.编辑香港电影标签，修改（香港电影2-绿-黑）
+6.新增标记（标记1-默认-默认）</t>
+  </si>
+  <si>
+    <t>2.新增标记成功
+3.成功给所有影片添加标记
+4.被选择的电影取消了标记
+5.修改后，所有具有该标记的影片也被修改了
+6.按照默认方式添加了标记</t>
+  </si>
+  <si>
+    <t>1.修改标签后未实时更新
+2.【BUG】不修改默认颜色则对应不上</t>
+  </si>
+  <si>
+    <t>标记筛选</t>
+  </si>
+  <si>
+    <t>1.侧边栏对标记进行全选/取消全选
+2.侧边栏对标记点击勾选/取消勾选</t>
+  </si>
+  <si>
+    <t>1.取消全选后，仅显示无标记的影片
+2.点击勾选/取消勾选后，影片以或的方式显示</t>
+  </si>
+  <si>
+    <t>1.【功能】标记以与/或方式</t>
+  </si>
+  <si>
+    <t>标记删除</t>
+  </si>
+  <si>
+    <t>1.对着某个影片右键-选择删除
+2.对着 HD 或者 Translated 选择删除
+3.侧边栏删除某个标记</t>
+  </si>
+  <si>
+    <t>1. HD 和 Translated 无法删除
+2.影片下的所有标记都可以被删除
+3.所有标记都被删除</t>
+  </si>
+  <si>
+    <t>影片搜索</t>
+  </si>
+  <si>
+    <t>搜索</t>
+  </si>
+  <si>
+    <t>1.打开库【NFO】
+2.侧边栏所有视频-搜索：大小写、纯数字、纯英文、特殊符号（',%,?,.）
+3.侧边栏演员-搜索演员
+4.智能分类-搜索</t>
+  </si>
+  <si>
+    <t>2.所有均可正常搜索</t>
+  </si>
+  <si>
+    <t>1.横向滚动条优化
+2.演员搜索候选词</t>
+  </si>
+  <si>
+    <t>演员管理</t>
+  </si>
+  <si>
+    <t>演员</t>
   </si>
 </sst>
 </file>
@@ -50,7 +254,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,24 +263,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Microsoft YaHei"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -534,48 +731,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -585,111 +785,129 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -744,6 +962,15 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1040,65 +1267,354 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.1574074074074" customWidth="1"/>
-    <col min="2" max="2" width="11.1203703703704" customWidth="1"/>
-    <col min="3" max="8" width="13.1574074074074" customWidth="1"/>
+    <col min="1" max="1" width="13.1574074074074" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1203703703704" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5555555555556" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1574074074074" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.2222222222222" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.3333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1574074074074" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.8888888888889" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+    <row r="2" ht="54" customHeight="1" spans="1:8">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="98" customHeight="1" spans="1:8">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" ht="58" customHeight="1" spans="1:8">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" ht="112" customHeight="1" spans="1:8">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" ht="87" customHeight="1" spans="1:8">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" ht="113" customHeight="1" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" ht="114" customHeight="1" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" ht="109" customHeight="1" spans="1:8">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" ht="101" customHeight="1" spans="1:8">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" ht="70" customHeight="1" spans="1:6">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" ht="97" customHeight="1" spans="1:8">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" ht="66" customHeight="1" spans="1:4">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G2:G1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 B2:B9 B11:B1048576">
       <formula1>"5,4,3,2,1,0"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10 G2:G9 G11:G1048576">
+      <formula1>"PASS,FAIL"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
-      <formula1>"扫描,信息同步"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
-      <formula1>"PASS,FAIL"</formula1>
+      <formula1>"扫描,信息同步,升级,信息编辑,信息查看,其他,标记,搜索,演员"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Jvedio-WPF/Jvedio.Test/测试用例.xlsx
+++ b/Jvedio-WPF/Jvedio.Test/测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="用户测试用例" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="94">
   <si>
     <t>用例编号</t>
   </si>
@@ -238,10 +238,149 @@
 2.演员搜索候选词</t>
   </si>
   <si>
-    <t>演员管理</t>
+    <t>新增演员信息</t>
   </si>
   <si>
     <t>演员</t>
+  </si>
+  <si>
+    <t>1.新增演员
+2.右键选择文件添加头像或者拖动图片到头像框
+3.设置演员名字与已有的重复，保存信息</t>
+  </si>
+  <si>
+    <t>1.可正常设置演员头像
+2.可正常保存演员信息</t>
+  </si>
+  <si>
+    <t>1.拖入图片后不显示头像
+2.演员同名后图片会共用</t>
+  </si>
+  <si>
+    <t>影片新增演员</t>
+  </si>
+  <si>
+    <t>1.打开影片
+2.编辑，新增演员</t>
+  </si>
+  <si>
+    <t>1.可正常新增演员</t>
+  </si>
+  <si>
+    <t>1.详情页演员右键不对</t>
+  </si>
+  <si>
+    <t>基本设置</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>1.基本设置</t>
+  </si>
+  <si>
+    <t>1.所有设置均可正常使用</t>
+  </si>
+  <si>
+    <t>1.【BUG】勾选删除文件删除信息，如果文件删除失败，则不删除信息
+2.【功能】搜索历史不可用
+3.【BUG】库选择热键显示后会把主界面也显示
+4.其它选项卡</t>
+  </si>
+  <si>
+    <t>图像</t>
+  </si>
+  <si>
+    <t>1.打开【NFO】
+2.切换为相对于影片路径
+3.搜索识别码 REBD-450
+4.查看图片信息是否完整
+5.新增演员【测试演员】，设置头像
+6.截图后查看所有视频</t>
+  </si>
+  <si>
+    <t>1.预览图、海报图、截图、演员头像都显示</t>
+  </si>
+  <si>
+    <t>1.【BUG】无法设置头像
+2.【功能】由于当前图片资源文相对于影片，因此该页面不显示头像
+3.修改演员头像默认为 `./.actors`
+4.【BUG】演员头像未正确显示
+5.【BUG】截图后显示的海报图不正确</t>
+  </si>
+  <si>
+    <t>显示</t>
+  </si>
+  <si>
+    <t>1.显示设置</t>
+  </si>
+  <si>
+    <t>1.【导航栏】无作用
+2.【功能】部分功能不可用</t>
+  </si>
+  <si>
+    <t>视频处理</t>
+  </si>
+  <si>
+    <t>1.设置图像为相对于影片路径
+2.添加 ffmpeg.exe 的位置，设置线程和截图数量
+3.选中当前页所有影视资源，右键截图
+4.生成 GIF</t>
+  </si>
+  <si>
+    <t>1.可以正常截图</t>
+  </si>
+  <si>
+    <t>1.【功能】扫描后自动截图并显示
+2.【BUG】gif 和截图识别码相同则显示任务已存在
+3.【BUG】生成 GIF 的时候给定关键字不在字典中</t>
+  </si>
+  <si>
+    <t>自定外观</t>
+  </si>
+  <si>
+    <t>1.修改各个选项</t>
+  </si>
+  <si>
+    <t>1.【BUG】设置透明度为 0  后选择影片不显示
+2.取消所有勾选后不是纯图片（底部边框）</t>
+  </si>
+  <si>
+    <t>重命名</t>
+  </si>
+  <si>
+    <t>1.添加重命名规则</t>
+  </si>
+  <si>
+    <t>1.【BUG】视频类型为数字
+2.【功能】全部影片重命名</t>
+  </si>
+  <si>
+    <t>库</t>
+  </si>
+  <si>
+    <t>1.库设置</t>
+  </si>
+  <si>
+    <t>1.【BUG】扫描后自动建立播放索引无效
+2.优化按钮间距</t>
+  </si>
+  <si>
+    <t>插件相关</t>
+  </si>
+  <si>
+    <t>插件</t>
+  </si>
+  <si>
+    <t>1.下载插件</t>
+  </si>
+  <si>
+    <t>1.【BUG】本地插件图片不正确
+2.【BUG】无法删除插件
+3.【BUG】垂直滚动条
+4.【BUG】皮肤启用禁用无效
+5.【BUG】是否启用筛选对未下载的也生效了
+6.【BUG】作者未填写网址取消下划线</t>
   </si>
 </sst>
 </file>
@@ -876,7 +1015,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -897,18 +1036,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -969,6 +1096,20 @@
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF00B0F0"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF00B0F0"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF00B0F0"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF00B0F0"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1267,10 +1408,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -1345,22 +1486,22 @@
       <c r="B3" s="1">
         <v>5</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1371,16 +1512,16 @@
       <c r="B4" s="1">
         <v>5</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -1397,16 +1538,16 @@
       <c r="B5" s="1">
         <v>5</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1432,7 +1573,7 @@
       <c r="E6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -1481,7 +1622,7 @@
       <c r="E8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="5" t="s">
         <v>38</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -1504,7 +1645,7 @@
       <c r="E9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="5" t="s">
         <v>42</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -1530,7 +1671,7 @@
       <c r="E10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="5" t="s">
         <v>46</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -1556,7 +1697,7 @@
       <c r="E11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1576,7 +1717,7 @@
       <c r="E12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="5" t="s">
         <v>54</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -1586,7 +1727,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" ht="66" customHeight="1" spans="1:4">
+    <row r="13" ht="66" customHeight="1" spans="1:8">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1598,6 +1739,247 @@
       </c>
       <c r="D13" s="1" t="s">
         <v>57</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" ht="55" customHeight="1" spans="1:8">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" ht="102" customHeight="1" spans="1:8">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" ht="112" customHeight="1" spans="1:8">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" ht="48" customHeight="1" spans="1:8">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" ht="89" customHeight="1" spans="1:8">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" ht="66" customHeight="1" spans="1:8">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" ht="52" customHeight="1" spans="1:8">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" ht="60" customHeight="1" spans="1:8">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" ht="133" customHeight="1" spans="1:8">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1607,14 +1989,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10 G2:G9 G11:G1048576">
+      <formula1>"PASS,FAIL"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 B2:B9 B11:B1048576">
       <formula1>"5,4,3,2,1,0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10 G2:G9 G11:G1048576">
-      <formula1>"PASS,FAIL"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
-      <formula1>"扫描,信息同步,升级,信息编辑,信息查看,其他,标记,搜索,演员"</formula1>
+      <formula1>"扫描,信息同步,升级,信息编辑,信息查看,其他,标记,搜索,演员,设置,插件"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Jvedio-WPF/Jvedio.Test/测试用例.xlsx
+++ b/Jvedio-WPF/Jvedio.Test/测试用例.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="86">
   <si>
     <t>用例编号</t>
   </si>
@@ -54,12 +54,6 @@
     <t>1.Jvedio 正常迁移了数据</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>1. 选择库界面左侧导航栏</t>
-  </si>
-  <si>
     <t>扫描电影</t>
   </si>
   <si>
@@ -74,23 +68,12 @@
     <t>1.成功扫描并导入</t>
   </si>
   <si>
-    <t xml:space="preserve">1.扫描的按钮优化
-2.新建库的输入框按钮
-3.左下角 JVEDIO 鼠标样式
-4.新增鼠标样式
-5.隐藏快速访问的加号
-</t>
-  </si>
-  <si>
     <t>扫描带识别码视频</t>
   </si>
   <si>
     <t>1.新建库【识别码】
 2.点击上方【导入视频】，选择一个文件夹
 3.点击左下角设置-扫描-扫描多个文件夹</t>
-  </si>
-  <si>
-    <t>1.扫描多个文件夹 tooltip</t>
   </si>
   <si>
     <t>扫描NFO</t>
@@ -100,16 +83,11 @@
 2.解压 NFO.7z 到软件目录（有密码）
 3.设置-扫描与导入-勾选【导入NFO】
 4.点击左下角设置-扫描-扫描多个文件夹，选择该 NFO 文件夹
-5.切换到预览图，右键选择【有图模式】</t>
+5.切换到海报图，右键选择【有图模式】</t>
   </si>
   <si>
     <t>1.成功扫描并导入
 2.有些影视资源具有图片</t>
-  </si>
-  <si>
-    <t>1.删除库后，新建同名库，统计信息不正确
-2.且演员未删除
-3.演员头像未复制过去</t>
   </si>
   <si>
     <t>启动时扫描</t>
@@ -124,13 +102,6 @@
   <si>
     <t>1.切换库不会进行扫描
 2.重启后会扫描库</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>1.【功能】添加全部影片-删除信息
-2.【BUG】切换库后会进行扫描</t>
   </si>
   <si>
     <t>信息编辑与修改</t>
@@ -188,10 +159,6 @@
 6.按照默认方式添加了标记</t>
   </si>
   <si>
-    <t>1.修改标签后未实时更新
-2.【BUG】不修改默认颜色则对应不上</t>
-  </si>
-  <si>
     <t>标记筛选</t>
   </si>
   <si>
@@ -201,9 +168,6 @@
   <si>
     <t>1.取消全选后，仅显示无标记的影片
 2.点击勾选/取消勾选后，影片以或的方式显示</t>
-  </si>
-  <si>
-    <t>1.【功能】标记以与/或方式</t>
   </si>
   <si>
     <t>标记删除</t>
@@ -234,10 +198,6 @@
     <t>2.所有均可正常搜索</t>
   </si>
   <si>
-    <t>1.横向滚动条优化
-2.演员搜索候选词</t>
-  </si>
-  <si>
     <t>新增演员信息</t>
   </si>
   <si>
@@ -253,10 +213,6 @@
 2.可正常保存演员信息</t>
   </si>
   <si>
-    <t>1.拖入图片后不显示头像
-2.演员同名后图片会共用</t>
-  </si>
-  <si>
     <t>影片新增演员</t>
   </si>
   <si>
@@ -267,9 +223,6 @@
     <t>1.可正常新增演员</t>
   </si>
   <si>
-    <t>1.详情页演员右键不对</t>
-  </si>
-  <si>
     <t>基本设置</t>
   </si>
   <si>
@@ -280,12 +233,6 @@
   </si>
   <si>
     <t>1.所有设置均可正常使用</t>
-  </si>
-  <si>
-    <t>1.【BUG】勾选删除文件删除信息，如果文件删除失败，则不删除信息
-2.【功能】搜索历史不可用
-3.【BUG】库选择热键显示后会把主界面也显示
-4.其它选项卡</t>
   </si>
   <si>
     <t>图像</t>
@@ -302,21 +249,10 @@
     <t>1.预览图、海报图、截图、演员头像都显示</t>
   </si>
   <si>
-    <t>1.【BUG】无法设置头像
-2.【功能】由于当前图片资源文相对于影片，因此该页面不显示头像
-3.修改演员头像默认为 `./.actors`
-4.【BUG】演员头像未正确显示
-5.【BUG】截图后显示的海报图不正确</t>
-  </si>
-  <si>
     <t>显示</t>
   </si>
   <si>
     <t>1.显示设置</t>
-  </si>
-  <si>
-    <t>1.【导航栏】无作用
-2.【功能】部分功能不可用</t>
   </si>
   <si>
     <t>视频处理</t>
@@ -331,41 +267,24 @@
     <t>1.可以正常截图</t>
   </si>
   <si>
-    <t>1.【功能】扫描后自动截图并显示
-2.【BUG】gif 和截图识别码相同则显示任务已存在
-3.【BUG】生成 GIF 的时候给定关键字不在字典中</t>
-  </si>
-  <si>
     <t>自定外观</t>
   </si>
   <si>
     <t>1.修改各个选项</t>
   </si>
   <si>
-    <t>1.【BUG】设置透明度为 0  后选择影片不显示
-2.取消所有勾选后不是纯图片（底部边框）</t>
-  </si>
-  <si>
     <t>重命名</t>
   </si>
   <si>
     <t>1.添加重命名规则</t>
   </si>
   <si>
-    <t>1.【BUG】视频类型为数字
-2.【功能】全部影片重命名</t>
-  </si>
-  <si>
     <t>库</t>
   </si>
   <si>
     <t>1.库设置</t>
   </si>
   <si>
-    <t>1.【BUG】扫描后自动建立播放索引无效
-2.优化按钮间距</t>
-  </si>
-  <si>
     <t>插件相关</t>
   </si>
   <si>
@@ -375,12 +294,42 @@
     <t>1.下载插件</t>
   </si>
   <si>
-    <t>1.【BUG】本地插件图片不正确
-2.【BUG】无法删除插件
-3.【BUG】垂直滚动条
-4.【BUG】皮肤启用禁用无效
-5.【BUG】是否启用筛选对未下载的也生效了
-6.【BUG】作者未填写网址取消下划线</t>
+    <t>主界面影片右键</t>
+  </si>
+  <si>
+    <t>右键菜单</t>
+  </si>
+  <si>
+    <t>1.对着单个影片右键
+2.选择多个影片右键</t>
+  </si>
+  <si>
+    <t>1.所有右键菜单均可正常使用</t>
+  </si>
+  <si>
+    <t>详情页右键</t>
+  </si>
+  <si>
+    <t>1.对着影片右键
+2.对着预览图右键</t>
+  </si>
+  <si>
+    <t>启动页右面</t>
+  </si>
+  <si>
+    <t>1.对着库右键</t>
+  </si>
+  <si>
+    <t>新增识别码</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>1.新增识别码</t>
+  </si>
+  <si>
+    <t>1.可以正确新增识别码</t>
   </si>
 </sst>
 </file>
@@ -1015,7 +964,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1036,6 +985,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1408,10 +1360,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -1453,7 +1405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="54" customHeight="1" spans="1:8">
+    <row r="2" ht="54" customHeight="1" spans="1:7">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1472,14 +1424,9 @@
       <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" ht="98" customHeight="1" spans="1:8">
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" ht="98" customHeight="1" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1487,25 +1434,19 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" ht="58" customHeight="1" spans="1:8">
+    </row>
+    <row r="4" ht="58" customHeight="1" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1513,25 +1454,19 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" ht="112" customHeight="1" spans="1:8">
+    </row>
+    <row r="5" ht="112" customHeight="1" spans="1:6">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1539,25 +1474,19 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" ht="87" customHeight="1" spans="1:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" ht="87" customHeight="1" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1565,25 +1494,19 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" ht="113" customHeight="1" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" ht="113" customHeight="1" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1591,22 +1514,19 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" ht="114" customHeight="1" spans="1:7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" ht="114" customHeight="1" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1614,22 +1534,19 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" ht="109" customHeight="1" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" ht="109" customHeight="1" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1637,25 +1554,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" ht="101" customHeight="1" spans="1:8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" ht="101" customHeight="1" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1663,22 +1574,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" ht="70" customHeight="1" spans="1:6">
@@ -1689,19 +1594,19 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="F11" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" ht="97" customHeight="1" spans="1:8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" ht="97" customHeight="1" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1709,25 +1614,19 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" ht="66" customHeight="1" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" ht="66" customHeight="1" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1735,25 +1634,19 @@
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" ht="55" customHeight="1" spans="1:8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" ht="55" customHeight="1" spans="1:6">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1761,25 +1654,19 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" ht="102" customHeight="1" spans="1:8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" ht="164" customHeight="1" spans="1:6">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1787,22 +1674,19 @@
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" ht="112" customHeight="1" spans="1:8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" ht="144" customHeight="1" spans="1:6">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1810,25 +1694,19 @@
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" ht="48" customHeight="1" spans="1:8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" ht="48" customHeight="1" spans="1:6">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1836,25 +1714,19 @@
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" ht="89" customHeight="1" spans="1:8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" ht="89" customHeight="1" spans="1:6">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1862,25 +1734,19 @@
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" ht="66" customHeight="1" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" ht="66" customHeight="1" spans="1:6">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1888,25 +1754,19 @@
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" ht="52" customHeight="1" spans="1:8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" ht="52" customHeight="1" spans="1:6">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1914,25 +1774,19 @@
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" ht="60" customHeight="1" spans="1:8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" ht="60" customHeight="1" spans="1:6">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1940,25 +1794,19 @@
         <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" ht="133" customHeight="1" spans="1:8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" ht="133" customHeight="1" spans="1:5">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1966,20 +1814,93 @@
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>93</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" ht="84" customHeight="1" spans="1:6">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" ht="114" customHeight="1" spans="1:6">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" ht="78" customHeight="1" spans="1:6">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" ht="82" customHeight="1" spans="1:6">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1989,14 +1910,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10 G2:G9 G11:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 B2:B9 B11:B24 B25:B1048576">
+      <formula1>"5,4,3,2,1,0"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10 G2:G9 G11:G24 G25:G1048576">
       <formula1>"PASS,FAIL"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 B2:B9 B11:B1048576">
-      <formula1>"5,4,3,2,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
-      <formula1>"扫描,信息同步,升级,信息编辑,信息查看,其他,标记,搜索,演员,设置,插件"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24 D2:D23 D25:D1048576">
+      <formula1>"扫描,信息同步,升级,信息编辑,信息查看,其他,标记,搜索,演员,设置,插件,右键菜单"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Jvedio-WPF/Jvedio.Test/测试用例.xlsx
+++ b/Jvedio-WPF/Jvedio.Test/测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8820"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="用户测试用例" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="98">
   <si>
     <t>用例编号</t>
   </si>
@@ -83,7 +83,7 @@
 2.解压 NFO.7z 到软件目录（有密码）
 3.设置-扫描与导入-勾选【导入NFO】
 4.点击左下角设置-扫描-扫描多个文件夹，选择该 NFO 文件夹
-5.切换到海报图，右键选择【有图模式】</t>
+5.切换到预览图，右键选择【有图模式】</t>
   </si>
   <si>
     <t>1.成功扫描并导入
@@ -330,6 +330,42 @@
   </si>
   <si>
     <t>1.可以正确新增识别码</t>
+  </si>
+  <si>
+    <t>语言</t>
+  </si>
+  <si>
+    <t>1.查看语言</t>
+  </si>
+  <si>
+    <t>1.语言都正确</t>
+  </si>
+  <si>
+    <t>外观、颜色</t>
+  </si>
+  <si>
+    <t>1.查看外观及颜色</t>
+  </si>
+  <si>
+    <t>1.语言都合适</t>
+  </si>
+  <si>
+    <t>异常终止</t>
+  </si>
+  <si>
+    <t>1.检查异常终止</t>
+  </si>
+  <si>
+    <t>1.异常终止处理正常</t>
+  </si>
+  <si>
+    <t>快捷键</t>
+  </si>
+  <si>
+    <t>1.检查所有快捷键</t>
+  </si>
+  <si>
+    <t>1.所有快捷键正常</t>
   </si>
 </sst>
 </file>
@@ -342,7 +378,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,6 +394,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -822,10 +865,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -834,34 +877,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -873,94 +913,97 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -986,7 +1029,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1360,10 +1403,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -1426,7 +1469,7 @@
       </c>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" ht="98" customHeight="1" spans="1:6">
+    <row r="3" ht="98" customHeight="1" spans="1:8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1445,8 +1488,10 @@
       <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" ht="58" customHeight="1" spans="1:6">
+      <c r="G3" s="1"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" ht="58" customHeight="1" spans="1:8">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1465,6 +1510,8 @@
       <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" ht="112" customHeight="1" spans="1:6">
       <c r="A5" s="5">
@@ -1606,7 +1653,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" ht="97" customHeight="1" spans="1:6">
+    <row r="12" ht="97" customHeight="1" spans="1:8">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1625,8 +1672,10 @@
       <c r="F12" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" ht="66" customHeight="1" spans="1:6">
+      <c r="G12" s="1"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" ht="66" customHeight="1" spans="1:8">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1645,8 +1694,10 @@
       <c r="F13" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" ht="55" customHeight="1" spans="1:6">
+      <c r="G13" s="1"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" ht="55" customHeight="1" spans="1:8">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1665,8 +1716,10 @@
       <c r="F14" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" ht="164" customHeight="1" spans="1:6">
+      <c r="G14" s="1"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" ht="164" customHeight="1" spans="1:8">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1685,8 +1738,10 @@
       <c r="F15" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="16" ht="144" customHeight="1" spans="1:6">
+      <c r="G15" s="1"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" ht="144" customHeight="1" spans="1:8">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1705,8 +1760,10 @@
       <c r="F16" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="17" ht="48" customHeight="1" spans="1:6">
+      <c r="G16" s="1"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" ht="48" customHeight="1" spans="1:8">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1725,6 +1782,8 @@
       <c r="F17" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" ht="89" customHeight="1" spans="1:6">
       <c r="A18" s="1">
@@ -1746,7 +1805,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" ht="66" customHeight="1" spans="1:6">
+    <row r="19" ht="66" customHeight="1" spans="1:8">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1765,6 +1824,8 @@
       <c r="F19" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" ht="52" customHeight="1" spans="1:6">
       <c r="A20" s="1">
@@ -1786,7 +1847,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" ht="60" customHeight="1" spans="1:6">
+    <row r="21" ht="60" customHeight="1" spans="1:8">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1805,8 +1866,10 @@
       <c r="F21" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" ht="133" customHeight="1" spans="1:5">
+      <c r="G21" s="1"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" ht="133" customHeight="1" spans="1:8">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1822,6 +1885,7 @@
       <c r="E22" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="H22" s="7"/>
     </row>
     <row r="23" ht="84" customHeight="1" spans="1:6">
       <c r="A23" s="1">
@@ -1836,14 +1900,14 @@
       <c r="D23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="3" t="s">
         <v>76</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" ht="114" customHeight="1" spans="1:6">
+    <row r="24" ht="114" customHeight="1" spans="1:8">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1856,12 +1920,14 @@
       <c r="D24" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="3" t="s">
         <v>79</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" ht="78" customHeight="1" spans="1:6">
       <c r="A25" s="1">
@@ -1876,14 +1942,14 @@
       <c r="D25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="3" t="s">
         <v>81</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="26" ht="82" customHeight="1" spans="1:6">
+    <row r="26" ht="82" customHeight="1" spans="1:8">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1901,6 +1967,94 @@
       </c>
       <c r="F26" s="1" t="s">
         <v>85</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" ht="46" customHeight="1" spans="1:8">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" ht="70" customHeight="1" spans="1:8">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" ht="49" customHeight="1" spans="1:8">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" ht="48" customHeight="1" spans="1:6">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1913,11 +2067,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 B2:B9 B11:B24 B25:B1048576">
       <formula1>"5,4,3,2,1,0"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24 D28 D2:D23 D25:D27 D29:D1048576">
+      <formula1>"扫描,信息同步,升级,信息编辑,信息查看,其他,标记,搜索,演员,设置,插件,右键菜单"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10 G2:G9 G11:G24 G25:G1048576">
       <formula1>"PASS,FAIL"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24 D2:D23 D25:D1048576">
-      <formula1>"扫描,信息同步,升级,信息编辑,信息查看,其他,标记,搜索,演员,设置,插件,右键菜单"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Jvedio-WPF/Jvedio.Test/测试用例.xlsx
+++ b/Jvedio-WPF/Jvedio.Test/测试用例.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="103">
   <si>
     <t>用例编号</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>1.Jvedio 正常迁移了数据</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
   <si>
     <t>扫描电影</t>
@@ -88,6 +91,9 @@
   <si>
     <t>1.成功扫描并导入
 2.有些影视资源具有图片</t>
+  </si>
+  <si>
+    <t>1.【BUG】fanart, poster 未复制</t>
   </si>
   <si>
     <t>启动时扫描</t>
@@ -198,6 +204,9 @@
     <t>2.所有均可正常搜索</t>
   </si>
   <si>
+    <t>1.【BUG】智能分类，切换库还存在</t>
+  </si>
+  <si>
     <t>新增演员信息</t>
   </si>
   <si>
@@ -211,6 +220,10 @@
   <si>
     <t>1.可正常设置演员头像
 2.可正常保存演员信息</t>
+  </si>
+  <si>
+    <t>1.【BUG】拖动图片到演员头像上失败
+2.【BUG】图片右键不显示</t>
   </si>
   <si>
     <t>影片新增演员</t>
@@ -247,6 +260,9 @@
   </si>
   <si>
     <t>1.预览图、海报图、截图、演员头像都显示</t>
+  </si>
+  <si>
+    <t>1.【BUG】JvedioLib 未加密</t>
   </si>
   <si>
     <t>显示</t>
@@ -1405,8 +1421,8 @@
   <sheetPr/>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -1467,7 +1483,9 @@
       <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" ht="98" customHeight="1" spans="1:8">
       <c r="A3" s="1">
@@ -1477,18 +1495,20 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H3" s="7"/>
     </row>
     <row r="4" ht="58" customHeight="1" spans="1:8">
@@ -1499,21 +1519,23 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" ht="112" customHeight="1" spans="1:6">
+    <row r="5" ht="112" customHeight="1" spans="1:8">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1521,19 +1543,25 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" ht="87" customHeight="1" spans="1:6">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" ht="87" customHeight="1" spans="1:7">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1541,19 +1569,22 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" ht="113" customHeight="1" spans="1:6">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="113" customHeight="1" spans="1:7">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1561,19 +1592,22 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" ht="114" customHeight="1" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" ht="114" customHeight="1" spans="1:7">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1581,19 +1615,22 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" ht="109" customHeight="1" spans="1:6">
+        <v>33</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" ht="109" customHeight="1" spans="1:7">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1601,19 +1638,22 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" ht="101" customHeight="1" spans="1:6">
+        <v>37</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" ht="101" customHeight="1" spans="1:7">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1621,19 +1661,22 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" ht="70" customHeight="1" spans="1:6">
+        <v>40</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" ht="70" customHeight="1" spans="1:7">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1641,16 +1684,19 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="97" customHeight="1" spans="1:8">
@@ -1661,19 +1707,23 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" ht="66" customHeight="1" spans="1:8">
       <c r="A13" s="1">
@@ -1683,19 +1733,23 @@
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="14" ht="55" customHeight="1" spans="1:8">
       <c r="A14" s="1">
@@ -1705,18 +1759,20 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H14" s="7"/>
     </row>
     <row r="15" ht="164" customHeight="1" spans="1:8">
@@ -1727,18 +1783,20 @@
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H15" s="7"/>
     </row>
     <row r="16" ht="144" customHeight="1" spans="1:8">
@@ -1749,19 +1807,23 @@
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="17" ht="48" customHeight="1" spans="1:8">
       <c r="A17" s="1">
@@ -1771,21 +1833,23 @@
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" ht="89" customHeight="1" spans="1:6">
+    <row r="18" ht="89" customHeight="1" spans="1:7">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1793,16 +1857,19 @@
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="66" customHeight="1" spans="1:8">
@@ -1813,21 +1880,23 @@
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" ht="52" customHeight="1" spans="1:6">
+    <row r="20" ht="52" customHeight="1" spans="1:7">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1835,16 +1904,19 @@
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="60" customHeight="1" spans="1:8">
@@ -1855,18 +1927,20 @@
         <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H21" s="7"/>
     </row>
     <row r="22" ht="133" customHeight="1" spans="1:8">
@@ -1877,17 +1951,20 @@
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" ht="84" customHeight="1" spans="1:6">
+    <row r="23" ht="84" customHeight="1" spans="1:7">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1895,16 +1972,19 @@
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="114" customHeight="1" spans="1:8">
@@ -1915,21 +1995,23 @@
         <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G24" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" ht="78" customHeight="1" spans="1:6">
+    <row r="25" ht="78" customHeight="1" spans="1:7">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1937,16 +2019,19 @@
         <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="E25" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="82" customHeight="1" spans="1:8">
@@ -1957,18 +2042,20 @@
         <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G26" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H26" s="7"/>
     </row>
     <row r="27" ht="46" customHeight="1" spans="1:8">
@@ -1979,18 +2066,20 @@
         <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G27" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H27" s="7"/>
     </row>
     <row r="28" ht="70" customHeight="1" spans="1:8">
@@ -2001,18 +2090,20 @@
         <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G28" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H28" s="7"/>
     </row>
     <row r="29" ht="49" customHeight="1" spans="1:8">
@@ -2023,21 +2114,23 @@
         <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G29" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" ht="48" customHeight="1" spans="1:6">
+    <row r="30" ht="48" customHeight="1" spans="1:7">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2045,16 +2138,19 @@
         <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2067,11 +2163,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 B2:B9 B11:B24 B25:B1048576">
       <formula1>"5,4,3,2,1,0"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10 G25 G26 G27 G28 G29 G30 G2:G9 G11:G24 G31:G1048576">
+      <formula1>"PASS,FAIL"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24 D28 D2:D23 D25:D27 D29:D1048576">
       <formula1>"扫描,信息同步,升级,信息编辑,信息查看,其他,标记,搜索,演员,设置,插件,右键菜单"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10 G2:G9 G11:G24 G25:G1048576">
-      <formula1>"PASS,FAIL"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Jvedio-WPF/Jvedio.Test/测试用例.xlsx
+++ b/Jvedio-WPF/Jvedio.Test/测试用例.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="用户测试用例" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">用户测试用例!$A$1:$H$30</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="105">
   <si>
     <t>用例编号</t>
   </si>
@@ -52,9 +55,6 @@
   </si>
   <si>
     <t>1.Jvedio 正常迁移了数据</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
   <si>
     <t>扫描电影</t>
@@ -91,9 +91,6 @@
   <si>
     <t>1.成功扫描并导入
 2.有些影视资源具有图片</t>
-  </si>
-  <si>
-    <t>1.【BUG】fanart, poster 未复制</t>
   </si>
   <si>
     <t>启动时扫描</t>
@@ -204,9 +201,6 @@
     <t>2.所有均可正常搜索</t>
   </si>
   <si>
-    <t>1.【BUG】智能分类，切换库还存在</t>
-  </si>
-  <si>
     <t>新增演员信息</t>
   </si>
   <si>
@@ -220,10 +214,6 @@
   <si>
     <t>1.可正常设置演员头像
 2.可正常保存演员信息</t>
-  </si>
-  <si>
-    <t>1.【BUG】拖动图片到演员头像上失败
-2.【BUG】图片右键不显示</t>
   </si>
   <si>
     <t>影片新增演员</t>
@@ -262,9 +252,6 @@
     <t>1.预览图、海报图、截图、演员头像都显示</t>
   </si>
   <si>
-    <t>1.【BUG】JvedioLib 未加密</t>
-  </si>
-  <si>
     <t>显示</t>
   </si>
   <si>
@@ -382,6 +369,31 @@
   </si>
   <si>
     <t>1.所有快捷键正常</t>
+  </si>
+  <si>
+    <t>插件可下载可配置</t>
+  </si>
+  <si>
+    <t>信息同步</t>
+  </si>
+  <si>
+    <t>1.打开插件
+2.可以显示插件列表
+3.同时下载多个插件
+4.设置里给所有插件新增网址，并测试</t>
+  </si>
+  <si>
+    <t>1.所有插件可下载
+2.所有插件可配置网址，且都能通过测试</t>
+  </si>
+  <si>
+    <t>插件可使用</t>
+  </si>
+  <si>
+    <t>1.使用插件进行信息同步</t>
+  </si>
+  <si>
+    <t>1.所有插件均可同步信息</t>
   </si>
 </sst>
 </file>
@@ -394,7 +406,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,16 +422,22 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
@@ -576,7 +594,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.8"/>
+        <fgColor theme="6" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,12 +785,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -881,10 +914,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -893,36 +926,33 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -932,121 +962,136 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1100,7 +1145,14 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.6"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1419,748 +1471,755 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.35" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.1574074074074" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1203703703704" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5555555555556" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1574074074074" style="1" customWidth="1"/>
-    <col min="5" max="5" width="48.2222222222222" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1574074074074" style="1" customWidth="1"/>
-    <col min="8" max="8" width="35.8888888888889" style="3" customWidth="1"/>
+    <col min="1" max="1" width="7.11111111111111" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.22222222222222" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.3055555555556" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.8981481481481" style="1" customWidth="1"/>
+    <col min="5" max="5" width="50.7777777777778" style="2" customWidth="1"/>
+    <col min="6" max="6" width="50.7777777777778" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.8981481481481" style="1" customWidth="1"/>
+    <col min="8" max="8" width="43.4537037037037" style="4" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="31.25" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="54" customHeight="1" spans="1:7">
-      <c r="A2" s="5">
+    <row r="2" ht="63.5" customHeight="1" spans="1:8">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" ht="63.5" customHeight="1" spans="1:8">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" ht="98" customHeight="1" spans="1:8">
-      <c r="A3" s="1">
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" ht="63.5" customHeight="1" spans="1:8">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" ht="113" customHeight="1" spans="1:8">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" ht="96.5" customHeight="1" spans="1:8">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" ht="113" customHeight="1" spans="1:8">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" ht="129.5" customHeight="1" spans="1:8">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" ht="113" customHeight="1" spans="1:8">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" ht="47" customHeight="1" spans="1:8">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>5</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" ht="63.5" customHeight="1" spans="1:8">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>5</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" ht="96.5" customHeight="1" spans="1:8">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" ht="63.5" customHeight="1" spans="1:8">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6">
+        <v>5</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" ht="47" customHeight="1" spans="1:8">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6">
+        <v>5</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6">
+        <v>5</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" ht="113" customHeight="1" spans="1:8">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6">
+        <v>4</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6">
+        <v>4</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" ht="80" customHeight="1" spans="1:8">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6">
+        <v>4</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6">
+        <v>3</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6">
+        <v>4</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6">
+        <v>3</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6">
+        <v>5</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" ht="47" customHeight="1" spans="1:8">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6">
+        <v>4</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" ht="47" customHeight="1" spans="1:8">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6">
+        <v>4</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6">
+        <v>5</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6">
+        <v>3</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C27" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" ht="58" customHeight="1" spans="1:8">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="C29" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" ht="90" customHeight="1" spans="1:6">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" ht="112" customHeight="1" spans="1:8">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="C31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" ht="76" customHeight="1" spans="1:6">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
         <v>5</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" ht="87" customHeight="1" spans="1:7">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" ht="113" customHeight="1" spans="1:7">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" ht="114" customHeight="1" spans="1:7">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" ht="109" customHeight="1" spans="1:7">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" ht="101" customHeight="1" spans="1:7">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" ht="70" customHeight="1" spans="1:7">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" ht="97" customHeight="1" spans="1:8">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" ht="66" customHeight="1" spans="1:8">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" ht="55" customHeight="1" spans="1:8">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" ht="164" customHeight="1" spans="1:8">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" ht="144" customHeight="1" spans="1:8">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>4</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" ht="48" customHeight="1" spans="1:8">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <v>4</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" ht="89" customHeight="1" spans="1:7">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>4</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" ht="66" customHeight="1" spans="1:8">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <v>3</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" ht="52" customHeight="1" spans="1:7">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1">
-        <v>4</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" ht="60" customHeight="1" spans="1:8">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1">
-        <v>3</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" ht="133" customHeight="1" spans="1:8">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1">
-        <v>5</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" ht="84" customHeight="1" spans="1:7">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1">
-        <v>4</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" ht="114" customHeight="1" spans="1:8">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1">
-        <v>4</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" ht="78" customHeight="1" spans="1:7">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1">
-        <v>5</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" ht="82" customHeight="1" spans="1:8">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1">
-        <v>3</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" ht="46" customHeight="1" spans="1:8">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1">
-        <v>2</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" ht="70" customHeight="1" spans="1:8">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1">
-        <v>2</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" ht="49" customHeight="1" spans="1:8">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1">
-        <v>5</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F29" s="1" t="s">
+      <c r="C32" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" ht="48" customHeight="1" spans="1:7">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1">
-        <v>2</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
+      <c r="E32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" ht="30" customHeight="1"/>
+    <row r="34" ht="30" customHeight="1"/>
+    <row r="35" ht="30" customHeight="1"/>
+    <row r="36" ht="30" customHeight="1"/>
+    <row r="37" ht="30" customHeight="1"/>
+    <row r="38" ht="30" customHeight="1"/>
+    <row r="39" ht="30" customHeight="1"/>
+    <row r="40" ht="30" customHeight="1"/>
+    <row r="41" ht="30" customHeight="1"/>
+    <row r="42" ht="30" customHeight="1"/>
+    <row r="43" ht="30" customHeight="1"/>
+    <row r="44" ht="30" customHeight="1"/>
   </sheetData>
+  <autoFilter ref="A1:H30">
+    <extLst/>
+  </autoFilter>
+  <conditionalFormatting sqref="G$1:G$1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G2:G1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 B2:B9 B11:B24 B25:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 B32 B2:B9 B11:B24 B25:B31 B33:B1048576">
       <formula1>"5,4,3,2,1,0"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10 G25 G26 G27 G28 G29 G30 G2:G9 G11:G24 G31:G1048576">
